--- a/File/TESTCASES_SALARY_LOGIN.xlsx
+++ b/File/TESTCASES_SALARY_LOGIN.xlsx
@@ -173,12 +173,14 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D7" activeCellId="0" sqref="D7"/>
+      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C:C"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.89453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.90234375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="20.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="36.05"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="16.2"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="17.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="29.66"/>
   </cols>
   <sheetData>
